--- a/Verified-Ms0004-30-03-OA-44-GG-QC-JO-R.xlsx
+++ b/Verified-Ms0004-30-03-OA-44-GG-QC-JO-R.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jase2188\Documents\GitHub\MetadataProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B7B8FB-8922-4228-ADAC-C6C4C0A47913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1947A145-D51D-4043-884D-52997AB88CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="660" windowWidth="28335" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29265" yWindow="810" windowWidth="28335" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Verified Ms0004 30 03 OA 44 GG " sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3306" uniqueCount="768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3306" uniqueCount="767">
   <si>
     <t>FullFolderOrFilePath</t>
   </si>
@@ -1244,9 +1244,6 @@
   </si>
   <si>
     <t>Socios Comerciales</t>
-  </si>
-  <si>
-    <t>Business partners</t>
   </si>
   <si>
     <t>Vendedor y Cliente</t>
@@ -2003,9 +2000,6 @@
     <t>Wells, Richardson &amp; Co.</t>
   </si>
   <si>
-    <t>Socios comerciales</t>
-  </si>
-  <si>
     <t>Burlington (Vt.)</t>
   </si>
   <si>
@@ -2325,6 +2319,9 @@
   </si>
   <si>
     <t>Ms0004_30_03_44.pdf</t>
+  </si>
+  <si>
+    <t>Business Partners</t>
   </si>
 </sst>
 </file>
@@ -2678,8 +2675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CL45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH16" workbookViewId="0">
-      <selection activeCell="BA35" sqref="BA35"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6679,13 +6676,13 @@
         <v>407</v>
       </c>
       <c r="W19" t="s">
+        <v>766</v>
+      </c>
+      <c r="X19" t="s">
         <v>408</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>409</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>410</v>
       </c>
       <c r="Z19" t="s">
         <v>163</v>
@@ -6706,16 +6703,16 @@
         <v>112</v>
       </c>
       <c r="AF19" t="s">
+        <v>410</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>410</v>
+      </c>
+      <c r="AH19" t="s">
         <v>411</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AI19" t="s">
         <v>411</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>412</v>
-      </c>
-      <c r="AI19" t="s">
-        <v>412</v>
       </c>
       <c r="AJ19" t="s">
         <v>111</v>
@@ -6724,16 +6721,16 @@
         <v>112</v>
       </c>
       <c r="AP19" t="s">
+        <v>412</v>
+      </c>
+      <c r="AQ19" t="s">
         <v>413</v>
       </c>
-      <c r="AQ19" t="s">
+      <c r="AT19" t="s">
         <v>414</v>
       </c>
-      <c r="AT19" t="s">
-        <v>415</v>
-      </c>
       <c r="AU19" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AX19" t="s">
         <v>170</v>
@@ -6742,16 +6739,16 @@
         <v>171</v>
       </c>
       <c r="AZ19" t="s">
+        <v>415</v>
+      </c>
+      <c r="BA19" t="s">
         <v>416</v>
       </c>
-      <c r="BA19" t="s">
+      <c r="BB19" t="s">
         <v>417</v>
       </c>
-      <c r="BB19" t="s">
+      <c r="BC19" t="s">
         <v>418</v>
-      </c>
-      <c r="BC19" t="s">
-        <v>419</v>
       </c>
       <c r="BD19" t="s">
         <v>125</v>
@@ -6796,10 +6793,10 @@
         <v>138</v>
       </c>
       <c r="BR19" t="s">
+        <v>419</v>
+      </c>
+      <c r="BS19" t="s">
         <v>420</v>
-      </c>
-      <c r="BS19" t="s">
-        <v>421</v>
       </c>
       <c r="BT19" t="s">
         <v>141</v>
@@ -6814,10 +6811,10 @@
         <v>143</v>
       </c>
       <c r="BX19" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="BY19" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="CA19" t="s">
         <v>145</v>
@@ -6844,21 +6841,21 @@
         <v>152</v>
       </c>
       <c r="CK19" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="CL19" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="20" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>423</v>
+      </c>
+      <c r="B20" t="s">
         <v>424</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>425</v>
-      </c>
-      <c r="C20" t="s">
-        <v>426</v>
       </c>
       <c r="D20" t="s">
         <v>93</v>
@@ -6885,10 +6882,10 @@
         <v>97</v>
       </c>
       <c r="L20" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="M20" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="N20" t="s">
         <v>394</v>
@@ -6903,10 +6900,10 @@
         <v>103</v>
       </c>
       <c r="T20" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="U20" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="V20" t="s">
         <v>104</v>
@@ -6915,10 +6912,10 @@
         <v>105</v>
       </c>
       <c r="X20" t="s">
+        <v>428</v>
+      </c>
+      <c r="Y20" t="s">
         <v>429</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>430</v>
       </c>
       <c r="Z20" t="s">
         <v>163</v>
@@ -6939,10 +6936,10 @@
         <v>112</v>
       </c>
       <c r="AP20" t="s">
+        <v>430</v>
+      </c>
+      <c r="AQ20" t="s">
         <v>431</v>
-      </c>
-      <c r="AQ20" t="s">
-        <v>432</v>
       </c>
       <c r="AX20" t="s">
         <v>170</v>
@@ -6951,10 +6948,10 @@
         <v>171</v>
       </c>
       <c r="AZ20" t="s">
+        <v>432</v>
+      </c>
+      <c r="BA20" t="s">
         <v>433</v>
-      </c>
-      <c r="BA20" t="s">
-        <v>434</v>
       </c>
       <c r="BD20" t="s">
         <v>125</v>
@@ -7017,10 +7014,10 @@
         <v>143</v>
       </c>
       <c r="BX20" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="BY20" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="CA20" t="s">
         <v>145</v>
@@ -7055,13 +7052,13 @@
     </row>
     <row r="21" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>435</v>
+      </c>
+      <c r="B21" t="s">
         <v>436</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>437</v>
-      </c>
-      <c r="C21" t="s">
-        <v>438</v>
       </c>
       <c r="D21" t="s">
         <v>93</v>
@@ -7088,10 +7085,10 @@
         <v>97</v>
       </c>
       <c r="L21" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="M21" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="N21" t="s">
         <v>394</v>
@@ -7100,16 +7097,16 @@
         <v>394</v>
       </c>
       <c r="P21" t="s">
+        <v>439</v>
+      </c>
+      <c r="Q21" t="s">
         <v>440</v>
       </c>
-      <c r="Q21" t="s">
+      <c r="R21" t="s">
         <v>441</v>
       </c>
-      <c r="R21" t="s">
-        <v>442</v>
-      </c>
       <c r="S21" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="T21" t="s">
         <v>103</v>
@@ -7118,10 +7115,10 @@
         <v>103</v>
       </c>
       <c r="V21" t="s">
+        <v>442</v>
+      </c>
+      <c r="W21" t="s">
         <v>443</v>
-      </c>
-      <c r="W21" t="s">
-        <v>444</v>
       </c>
       <c r="Z21" t="s">
         <v>108</v>
@@ -7160,28 +7157,28 @@
         <v>112</v>
       </c>
       <c r="AL21" t="s">
+        <v>444</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>444</v>
+      </c>
+      <c r="AP21" t="s">
         <v>445</v>
       </c>
-      <c r="AM21" t="s">
-        <v>445</v>
-      </c>
-      <c r="AP21" t="s">
+      <c r="AQ21" t="s">
         <v>446</v>
       </c>
-      <c r="AQ21" t="s">
+      <c r="AR21" t="s">
         <v>447</v>
       </c>
-      <c r="AR21" t="s">
+      <c r="AS21" t="s">
         <v>448</v>
       </c>
-      <c r="AS21" t="s">
+      <c r="AT21" t="s">
         <v>449</v>
       </c>
-      <c r="AT21" t="s">
-        <v>450</v>
-      </c>
       <c r="AU21" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AX21" t="s">
         <v>256</v>
@@ -7196,10 +7193,10 @@
         <v>122</v>
       </c>
       <c r="BB21" t="s">
+        <v>450</v>
+      </c>
+      <c r="BC21" t="s">
         <v>451</v>
-      </c>
-      <c r="BC21" t="s">
-        <v>452</v>
       </c>
       <c r="BD21" t="s">
         <v>125</v>
@@ -7262,10 +7259,10 @@
         <v>143</v>
       </c>
       <c r="BX21" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="BY21" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="CA21" t="s">
         <v>145</v>
@@ -7292,21 +7289,21 @@
         <v>152</v>
       </c>
       <c r="CK21" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="CL21" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="22" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>454</v>
+      </c>
+      <c r="B22" t="s">
         <v>455</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>456</v>
-      </c>
-      <c r="C22" t="s">
-        <v>457</v>
       </c>
       <c r="D22" t="s">
         <v>93</v>
@@ -7333,10 +7330,10 @@
         <v>97</v>
       </c>
       <c r="L22" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="M22" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="N22" t="s">
         <v>394</v>
@@ -7345,10 +7342,10 @@
         <v>394</v>
       </c>
       <c r="P22" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q22" t="s">
         <v>459</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>460</v>
       </c>
       <c r="R22" t="s">
         <v>103</v>
@@ -7393,28 +7390,28 @@
         <v>112</v>
       </c>
       <c r="AL22" t="s">
+        <v>460</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>460</v>
+      </c>
+      <c r="AN22" t="s">
         <v>461</v>
       </c>
-      <c r="AM22" t="s">
+      <c r="AO22" t="s">
         <v>461</v>
       </c>
-      <c r="AN22" t="s">
+      <c r="AP22" t="s">
         <v>462</v>
       </c>
-      <c r="AO22" t="s">
-        <v>462</v>
-      </c>
-      <c r="AP22" t="s">
+      <c r="AQ22" t="s">
         <v>463</v>
       </c>
-      <c r="AQ22" t="s">
+      <c r="AR22" t="s">
         <v>464</v>
       </c>
-      <c r="AR22" t="s">
+      <c r="AS22" t="s">
         <v>465</v>
-      </c>
-      <c r="AS22" t="s">
-        <v>466</v>
       </c>
       <c r="AT22" t="s">
         <v>386</v>
@@ -7423,22 +7420,22 @@
         <v>386</v>
       </c>
       <c r="AX22" t="s">
+        <v>466</v>
+      </c>
+      <c r="AY22" t="s">
         <v>467</v>
       </c>
-      <c r="AY22" t="s">
+      <c r="AZ22" t="s">
         <v>468</v>
       </c>
-      <c r="AZ22" t="s">
+      <c r="BA22" t="s">
         <v>469</v>
       </c>
-      <c r="BA22" t="s">
+      <c r="BB22" t="s">
         <v>470</v>
       </c>
-      <c r="BB22" t="s">
+      <c r="BC22" t="s">
         <v>471</v>
-      </c>
-      <c r="BC22" t="s">
-        <v>472</v>
       </c>
       <c r="BD22" t="s">
         <v>125</v>
@@ -7483,10 +7480,10 @@
         <v>138</v>
       </c>
       <c r="BR22" t="s">
+        <v>472</v>
+      </c>
+      <c r="BS22" t="s">
         <v>473</v>
-      </c>
-      <c r="BS22" t="s">
-        <v>474</v>
       </c>
       <c r="BT22" t="s">
         <v>141</v>
@@ -7501,10 +7498,10 @@
         <v>143</v>
       </c>
       <c r="BX22" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="BY22" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="CA22" t="s">
         <v>145</v>
@@ -7539,13 +7536,13 @@
     </row>
     <row r="23" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>475</v>
+      </c>
+      <c r="B23" t="s">
         <v>476</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>477</v>
-      </c>
-      <c r="C23" t="s">
-        <v>478</v>
       </c>
       <c r="D23" t="s">
         <v>93</v>
@@ -7572,10 +7569,10 @@
         <v>97</v>
       </c>
       <c r="L23" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M23" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="N23" t="s">
         <v>394</v>
@@ -7584,10 +7581,10 @@
         <v>394</v>
       </c>
       <c r="R23" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="S23" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="T23" t="s">
         <v>103</v>
@@ -7596,16 +7593,16 @@
         <v>103</v>
       </c>
       <c r="V23" t="s">
+        <v>442</v>
+      </c>
+      <c r="W23" t="s">
         <v>443</v>
       </c>
-      <c r="W23" t="s">
-        <v>444</v>
-      </c>
       <c r="Z23" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AA23" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AB23" t="s">
         <v>109</v>
@@ -7620,10 +7617,10 @@
         <v>112</v>
       </c>
       <c r="AL23" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AM23" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="AN23" t="s">
         <v>108</v>
@@ -7632,22 +7629,22 @@
         <v>108</v>
       </c>
       <c r="AP23" t="s">
+        <v>482</v>
+      </c>
+      <c r="AQ23" t="s">
         <v>483</v>
       </c>
-      <c r="AQ23" t="s">
+      <c r="AR23" t="s">
         <v>484</v>
       </c>
-      <c r="AR23" t="s">
+      <c r="AS23" t="s">
         <v>485</v>
       </c>
-      <c r="AS23" t="s">
-        <v>486</v>
-      </c>
       <c r="AT23" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AU23" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AX23" t="s">
         <v>170</v>
@@ -7722,10 +7719,10 @@
         <v>143</v>
       </c>
       <c r="BX23" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="BY23" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="CA23" t="s">
         <v>145</v>
@@ -7752,21 +7749,21 @@
         <v>152</v>
       </c>
       <c r="CK23" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="CL23" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="24" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>488</v>
+      </c>
+      <c r="B24" t="s">
         <v>489</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>490</v>
-      </c>
-      <c r="C24" t="s">
-        <v>491</v>
       </c>
       <c r="D24" t="s">
         <v>93</v>
@@ -7793,10 +7790,10 @@
         <v>97</v>
       </c>
       <c r="L24" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="M24" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="N24" t="s">
         <v>394</v>
@@ -7808,13 +7805,13 @@
         <v>295</v>
       </c>
       <c r="Q24" t="s">
+        <v>492</v>
+      </c>
+      <c r="R24" t="s">
         <v>493</v>
       </c>
-      <c r="R24" t="s">
-        <v>494</v>
-      </c>
       <c r="S24" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="T24" t="s">
         <v>103</v>
@@ -7853,34 +7850,34 @@
         <v>112</v>
       </c>
       <c r="AL24" t="s">
+        <v>494</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>494</v>
+      </c>
+      <c r="AP24" t="s">
         <v>495</v>
       </c>
-      <c r="AM24" t="s">
-        <v>495</v>
-      </c>
-      <c r="AP24" t="s">
+      <c r="AQ24" t="s">
         <v>496</v>
       </c>
-      <c r="AQ24" t="s">
+      <c r="AR24" t="s">
         <v>497</v>
       </c>
-      <c r="AR24" t="s">
+      <c r="AS24" t="s">
         <v>498</v>
       </c>
-      <c r="AS24" t="s">
+      <c r="AT24" t="s">
         <v>499</v>
       </c>
-      <c r="AT24" t="s">
+      <c r="AU24" t="s">
+        <v>499</v>
+      </c>
+      <c r="AV24" t="s">
         <v>500</v>
       </c>
-      <c r="AU24" t="s">
-        <v>500</v>
-      </c>
-      <c r="AV24" t="s">
+      <c r="AW24" t="s">
         <v>501</v>
-      </c>
-      <c r="AW24" t="s">
-        <v>502</v>
       </c>
       <c r="AX24" t="s">
         <v>347</v>
@@ -7955,10 +7952,10 @@
         <v>143</v>
       </c>
       <c r="BX24" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="BY24" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="CA24" t="s">
         <v>145</v>
@@ -7993,13 +7990,13 @@
     </row>
     <row r="25" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>503</v>
+      </c>
+      <c r="B25" t="s">
         <v>504</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>505</v>
-      </c>
-      <c r="C25" t="s">
-        <v>506</v>
       </c>
       <c r="D25" t="s">
         <v>93</v>
@@ -8026,10 +8023,10 @@
         <v>97</v>
       </c>
       <c r="L25" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="M25" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="N25" t="s">
         <v>394</v>
@@ -8044,10 +8041,10 @@
         <v>296</v>
       </c>
       <c r="R25" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="S25" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="T25" t="s">
         <v>103</v>
@@ -8086,28 +8083,28 @@
         <v>112</v>
       </c>
       <c r="AL25" t="s">
+        <v>506</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>506</v>
+      </c>
+      <c r="AP25" t="s">
         <v>507</v>
       </c>
-      <c r="AM25" t="s">
-        <v>507</v>
-      </c>
-      <c r="AP25" t="s">
+      <c r="AQ25" t="s">
         <v>508</v>
       </c>
-      <c r="AQ25" t="s">
+      <c r="AR25" t="s">
         <v>509</v>
       </c>
-      <c r="AR25" t="s">
+      <c r="AS25" t="s">
         <v>510</v>
       </c>
-      <c r="AS25" t="s">
+      <c r="AT25" t="s">
         <v>511</v>
       </c>
-      <c r="AT25" t="s">
-        <v>512</v>
-      </c>
       <c r="AU25" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AX25" t="s">
         <v>170</v>
@@ -8122,10 +8119,10 @@
         <v>173</v>
       </c>
       <c r="BB25" t="s">
+        <v>512</v>
+      </c>
+      <c r="BC25" t="s">
         <v>513</v>
-      </c>
-      <c r="BC25" t="s">
-        <v>514</v>
       </c>
       <c r="BD25" t="s">
         <v>125</v>
@@ -8188,10 +8185,10 @@
         <v>143</v>
       </c>
       <c r="BX25" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="BY25" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="CA25" t="s">
         <v>145</v>
@@ -8226,13 +8223,13 @@
     </row>
     <row r="26" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>515</v>
+      </c>
+      <c r="B26" t="s">
         <v>516</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>517</v>
-      </c>
-      <c r="C26" t="s">
-        <v>518</v>
       </c>
       <c r="D26" t="s">
         <v>93</v>
@@ -8259,10 +8256,10 @@
         <v>97</v>
       </c>
       <c r="L26" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="M26" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="N26" t="s">
         <v>394</v>
@@ -8271,10 +8268,10 @@
         <v>394</v>
       </c>
       <c r="P26" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q26" t="s">
         <v>520</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>521</v>
       </c>
       <c r="R26" t="s">
         <v>103</v>
@@ -8283,10 +8280,10 @@
         <v>103</v>
       </c>
       <c r="T26" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="U26" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="V26" t="s">
         <v>104</v>
@@ -8319,28 +8316,28 @@
         <v>112</v>
       </c>
       <c r="AL26" t="s">
+        <v>521</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>521</v>
+      </c>
+      <c r="AN26" t="s">
         <v>522</v>
       </c>
-      <c r="AM26" t="s">
-        <v>522</v>
-      </c>
-      <c r="AN26" t="s">
+      <c r="AO26" t="s">
         <v>523</v>
       </c>
-      <c r="AO26" t="s">
+      <c r="AP26" t="s">
         <v>524</v>
       </c>
-      <c r="AP26" t="s">
+      <c r="AQ26" t="s">
         <v>525</v>
       </c>
-      <c r="AQ26" t="s">
+      <c r="AR26" t="s">
         <v>526</v>
       </c>
-      <c r="AR26" t="s">
+      <c r="AS26" t="s">
         <v>527</v>
-      </c>
-      <c r="AS26" t="s">
-        <v>528</v>
       </c>
       <c r="AT26" t="s">
         <v>386</v>
@@ -8349,28 +8346,28 @@
         <v>386</v>
       </c>
       <c r="AV26" t="s">
+        <v>528</v>
+      </c>
+      <c r="AW26" t="s">
         <v>529</v>
       </c>
-      <c r="AW26" t="s">
+      <c r="AX26" t="s">
         <v>530</v>
       </c>
-      <c r="AX26" t="s">
+      <c r="AY26" t="s">
         <v>531</v>
       </c>
-      <c r="AY26" t="s">
+      <c r="AZ26" t="s">
+        <v>468</v>
+      </c>
+      <c r="BA26" t="s">
+        <v>469</v>
+      </c>
+      <c r="BB26" t="s">
         <v>532</v>
       </c>
-      <c r="AZ26" t="s">
-        <v>469</v>
-      </c>
-      <c r="BA26" t="s">
-        <v>470</v>
-      </c>
-      <c r="BB26" t="s">
+      <c r="BC26" t="s">
         <v>533</v>
-      </c>
-      <c r="BC26" t="s">
-        <v>534</v>
       </c>
       <c r="BD26" t="s">
         <v>125</v>
@@ -8415,10 +8412,10 @@
         <v>138</v>
       </c>
       <c r="BR26" t="s">
+        <v>472</v>
+      </c>
+      <c r="BS26" t="s">
         <v>473</v>
-      </c>
-      <c r="BS26" t="s">
-        <v>474</v>
       </c>
       <c r="BT26" t="s">
         <v>141</v>
@@ -8433,10 +8430,10 @@
         <v>143</v>
       </c>
       <c r="BX26" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="BY26" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="CA26" t="s">
         <v>145</v>
@@ -8471,13 +8468,13 @@
     </row>
     <row r="27" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>535</v>
+      </c>
+      <c r="B27" t="s">
         <v>536</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>537</v>
-      </c>
-      <c r="C27" t="s">
-        <v>538</v>
       </c>
       <c r="D27" t="s">
         <v>93</v>
@@ -8504,10 +8501,10 @@
         <v>97</v>
       </c>
       <c r="L27" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="M27" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="N27" t="s">
         <v>394</v>
@@ -8516,10 +8513,10 @@
         <v>394</v>
       </c>
       <c r="P27" t="s">
+        <v>539</v>
+      </c>
+      <c r="Q27" t="s">
         <v>540</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>541</v>
       </c>
       <c r="R27" t="s">
         <v>103</v>
@@ -8564,28 +8561,28 @@
         <v>112</v>
       </c>
       <c r="AL27" t="s">
+        <v>541</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>541</v>
+      </c>
+      <c r="AN27" t="s">
         <v>542</v>
       </c>
-      <c r="AM27" t="s">
+      <c r="AO27" t="s">
         <v>542</v>
       </c>
-      <c r="AN27" t="s">
+      <c r="AP27" t="s">
         <v>543</v>
       </c>
-      <c r="AO27" t="s">
-        <v>543</v>
-      </c>
-      <c r="AP27" t="s">
+      <c r="AQ27" t="s">
         <v>544</v>
       </c>
-      <c r="AQ27" t="s">
+      <c r="AR27" t="s">
         <v>545</v>
       </c>
-      <c r="AR27" t="s">
+      <c r="AS27" t="s">
         <v>546</v>
-      </c>
-      <c r="AS27" t="s">
-        <v>547</v>
       </c>
       <c r="AT27" t="s">
         <v>386</v>
@@ -8594,28 +8591,28 @@
         <v>386</v>
       </c>
       <c r="AV27" t="s">
+        <v>547</v>
+      </c>
+      <c r="AW27" t="s">
         <v>548</v>
       </c>
-      <c r="AW27" t="s">
+      <c r="AX27" t="s">
+        <v>466</v>
+      </c>
+      <c r="AY27" t="s">
+        <v>467</v>
+      </c>
+      <c r="AZ27" t="s">
+        <v>468</v>
+      </c>
+      <c r="BA27" t="s">
+        <v>469</v>
+      </c>
+      <c r="BB27" t="s">
         <v>549</v>
       </c>
-      <c r="AX27" t="s">
-        <v>467</v>
-      </c>
-      <c r="AY27" t="s">
-        <v>468</v>
-      </c>
-      <c r="AZ27" t="s">
-        <v>469</v>
-      </c>
-      <c r="BA27" t="s">
-        <v>470</v>
-      </c>
-      <c r="BB27" t="s">
+      <c r="BC27" t="s">
         <v>550</v>
-      </c>
-      <c r="BC27" t="s">
-        <v>551</v>
       </c>
       <c r="BD27" t="s">
         <v>125</v>
@@ -8678,10 +8675,10 @@
         <v>143</v>
       </c>
       <c r="BX27" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="BY27" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="CA27" t="s">
         <v>145</v>
@@ -8716,13 +8713,13 @@
     </row>
     <row r="28" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>552</v>
+      </c>
+      <c r="B28" t="s">
         <v>553</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>554</v>
-      </c>
-      <c r="C28" t="s">
-        <v>555</v>
       </c>
       <c r="D28" t="s">
         <v>93</v>
@@ -8749,10 +8746,10 @@
         <v>97</v>
       </c>
       <c r="L28" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="M28" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="N28" t="s">
         <v>394</v>
@@ -8761,10 +8758,10 @@
         <v>394</v>
       </c>
       <c r="P28" t="s">
+        <v>556</v>
+      </c>
+      <c r="Q28" t="s">
         <v>557</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>558</v>
       </c>
       <c r="R28" t="s">
         <v>202</v>
@@ -8809,10 +8806,10 @@
         <v>112</v>
       </c>
       <c r="AL28" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AM28" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AN28" t="s">
         <v>208</v>
@@ -8821,10 +8818,10 @@
         <v>208</v>
       </c>
       <c r="AP28" t="s">
+        <v>559</v>
+      </c>
+      <c r="AQ28" t="s">
         <v>560</v>
-      </c>
-      <c r="AQ28" t="s">
-        <v>561</v>
       </c>
       <c r="AX28" t="s">
         <v>170</v>
@@ -8839,10 +8836,10 @@
         <v>122</v>
       </c>
       <c r="BB28" t="s">
+        <v>561</v>
+      </c>
+      <c r="BC28" t="s">
         <v>562</v>
-      </c>
-      <c r="BC28" t="s">
-        <v>563</v>
       </c>
       <c r="BD28" t="s">
         <v>125</v>
@@ -8905,10 +8902,10 @@
         <v>143</v>
       </c>
       <c r="BX28" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="BY28" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="CA28" t="s">
         <v>145</v>
@@ -8943,13 +8940,13 @@
     </row>
     <row r="29" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>564</v>
+      </c>
+      <c r="B29" t="s">
         <v>565</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>566</v>
-      </c>
-      <c r="C29" t="s">
-        <v>567</v>
       </c>
       <c r="D29" t="s">
         <v>93</v>
@@ -8976,10 +8973,10 @@
         <v>97</v>
       </c>
       <c r="L29" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="M29" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="N29" t="s">
         <v>394</v>
@@ -9018,10 +9015,10 @@
         <v>112</v>
       </c>
       <c r="AL29" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AM29" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AN29" t="s">
         <v>251</v>
@@ -9030,10 +9027,10 @@
         <v>251</v>
       </c>
       <c r="AP29" t="s">
+        <v>569</v>
+      </c>
+      <c r="AQ29" t="s">
         <v>570</v>
-      </c>
-      <c r="AQ29" t="s">
-        <v>571</v>
       </c>
       <c r="AX29" t="s">
         <v>256</v>
@@ -9042,10 +9039,10 @@
         <v>257</v>
       </c>
       <c r="AZ29" t="s">
+        <v>415</v>
+      </c>
+      <c r="BA29" t="s">
         <v>416</v>
-      </c>
-      <c r="BA29" t="s">
-        <v>417</v>
       </c>
       <c r="BD29" t="s">
         <v>125</v>
@@ -9108,10 +9105,10 @@
         <v>143</v>
       </c>
       <c r="BX29" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="BY29" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="CA29" t="s">
         <v>145</v>
@@ -9146,13 +9143,13 @@
     </row>
     <row r="30" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>572</v>
+      </c>
+      <c r="B30" t="s">
         <v>573</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>574</v>
-      </c>
-      <c r="C30" t="s">
-        <v>575</v>
       </c>
       <c r="D30" t="s">
         <v>93</v>
@@ -9179,10 +9176,10 @@
         <v>97</v>
       </c>
       <c r="L30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M30" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="N30" t="s">
         <v>394</v>
@@ -9191,16 +9188,16 @@
         <v>394</v>
       </c>
       <c r="P30" t="s">
+        <v>576</v>
+      </c>
+      <c r="Q30" t="s">
         <v>577</v>
       </c>
-      <c r="Q30" t="s">
+      <c r="R30" t="s">
         <v>578</v>
       </c>
-      <c r="R30" t="s">
+      <c r="S30" t="s">
         <v>579</v>
-      </c>
-      <c r="S30" t="s">
-        <v>580</v>
       </c>
       <c r="T30" t="s">
         <v>103</v>
@@ -9221,10 +9218,10 @@
         <v>107</v>
       </c>
       <c r="Z30" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AA30" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AB30" t="s">
         <v>109</v>
@@ -9239,28 +9236,28 @@
         <v>112</v>
       </c>
       <c r="AL30" t="s">
+        <v>581</v>
+      </c>
+      <c r="AM30" t="s">
+        <v>581</v>
+      </c>
+      <c r="AP30" t="s">
         <v>582</v>
       </c>
-      <c r="AM30" t="s">
-        <v>582</v>
-      </c>
-      <c r="AP30" t="s">
+      <c r="AQ30" t="s">
         <v>583</v>
       </c>
-      <c r="AQ30" t="s">
+      <c r="AR30" t="s">
         <v>584</v>
       </c>
-      <c r="AR30" t="s">
+      <c r="AS30" t="s">
         <v>585</v>
       </c>
-      <c r="AS30" t="s">
+      <c r="AT30" t="s">
         <v>586</v>
       </c>
-      <c r="AT30" t="s">
-        <v>587</v>
-      </c>
       <c r="AU30" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AX30" t="s">
         <v>170</v>
@@ -9335,10 +9332,10 @@
         <v>143</v>
       </c>
       <c r="BX30" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="BY30" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="CA30" t="s">
         <v>145</v>
@@ -9365,21 +9362,21 @@
         <v>152</v>
       </c>
       <c r="CK30" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="CL30" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="31" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>589</v>
+      </c>
+      <c r="B31" t="s">
         <v>590</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>591</v>
-      </c>
-      <c r="C31" t="s">
-        <v>592</v>
       </c>
       <c r="D31" t="s">
         <v>93</v>
@@ -9412,34 +9409,34 @@
         <v>103</v>
       </c>
       <c r="T31" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="U31" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="V31" t="s">
         <v>407</v>
       </c>
       <c r="W31" t="s">
+        <v>766</v>
+      </c>
+      <c r="X31" t="s">
         <v>408</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Y31" t="s">
         <v>409</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="AF31" t="s">
         <v>410</v>
       </c>
-      <c r="AF31" t="s">
+      <c r="AG31" t="s">
+        <v>410</v>
+      </c>
+      <c r="AH31" t="s">
         <v>411</v>
       </c>
-      <c r="AG31" t="s">
+      <c r="AI31" t="s">
         <v>411</v>
-      </c>
-      <c r="AH31" t="s">
-        <v>412</v>
-      </c>
-      <c r="AI31" t="s">
-        <v>412</v>
       </c>
       <c r="AJ31" t="s">
         <v>111</v>
@@ -9448,16 +9445,16 @@
         <v>112</v>
       </c>
       <c r="AL31" t="s">
+        <v>593</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>593</v>
+      </c>
+      <c r="AP31" t="s">
         <v>594</v>
       </c>
-      <c r="AM31" t="s">
-        <v>594</v>
-      </c>
-      <c r="AP31" t="s">
+      <c r="AQ31" t="s">
         <v>595</v>
-      </c>
-      <c r="AQ31" t="s">
-        <v>596</v>
       </c>
       <c r="AX31" t="s">
         <v>170</v>
@@ -9466,10 +9463,10 @@
         <v>171</v>
       </c>
       <c r="AZ31" t="s">
+        <v>415</v>
+      </c>
+      <c r="BA31" t="s">
         <v>416</v>
-      </c>
-      <c r="BA31" t="s">
-        <v>417</v>
       </c>
       <c r="BD31" t="s">
         <v>125</v>
@@ -9532,10 +9529,10 @@
         <v>143</v>
       </c>
       <c r="BX31" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="BY31" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="CA31" t="s">
         <v>145</v>
@@ -9562,21 +9559,21 @@
         <v>152</v>
       </c>
       <c r="CK31" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="CL31" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="32" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>598</v>
+      </c>
+      <c r="B32" t="s">
         <v>599</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>600</v>
-      </c>
-      <c r="C32" t="s">
-        <v>601</v>
       </c>
       <c r="D32" t="s">
         <v>93</v>
@@ -9621,28 +9618,28 @@
         <v>105</v>
       </c>
       <c r="AL32" t="s">
+        <v>601</v>
+      </c>
+      <c r="AM32" t="s">
+        <v>601</v>
+      </c>
+      <c r="AN32" t="s">
         <v>602</v>
       </c>
-      <c r="AM32" t="s">
+      <c r="AO32" t="s">
         <v>602</v>
       </c>
-      <c r="AN32" t="s">
+      <c r="AP32" t="s">
         <v>603</v>
       </c>
-      <c r="AO32" t="s">
-        <v>603</v>
-      </c>
-      <c r="AP32" t="s">
+      <c r="AQ32" t="s">
         <v>604</v>
       </c>
-      <c r="AQ32" t="s">
+      <c r="AR32" t="s">
         <v>605</v>
       </c>
-      <c r="AR32" t="s">
+      <c r="AS32" t="s">
         <v>606</v>
-      </c>
-      <c r="AS32" t="s">
-        <v>607</v>
       </c>
       <c r="AT32" t="s">
         <v>386</v>
@@ -9651,10 +9648,10 @@
         <v>386</v>
       </c>
       <c r="AV32" t="s">
+        <v>607</v>
+      </c>
+      <c r="AW32" t="s">
         <v>608</v>
-      </c>
-      <c r="AW32" t="s">
-        <v>609</v>
       </c>
       <c r="AX32" t="s">
         <v>170</v>
@@ -9669,10 +9666,10 @@
         <v>173</v>
       </c>
       <c r="BB32" t="s">
+        <v>609</v>
+      </c>
+      <c r="BC32" t="s">
         <v>610</v>
-      </c>
-      <c r="BC32" t="s">
-        <v>611</v>
       </c>
       <c r="BD32" t="s">
         <v>125</v>
@@ -9735,10 +9732,10 @@
         <v>143</v>
       </c>
       <c r="BX32" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="BY32" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="CA32" t="s">
         <v>145</v>
@@ -9767,13 +9764,13 @@
     </row>
     <row r="33" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>612</v>
+      </c>
+      <c r="B33" t="s">
         <v>613</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>614</v>
-      </c>
-      <c r="C33" t="s">
-        <v>615</v>
       </c>
       <c r="D33" t="s">
         <v>93</v>
@@ -9806,10 +9803,10 @@
         <v>159</v>
       </c>
       <c r="R33" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="S33" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="T33" t="s">
         <v>103</v>
@@ -9818,28 +9815,28 @@
         <v>103</v>
       </c>
       <c r="AL33" t="s">
+        <v>616</v>
+      </c>
+      <c r="AM33" t="s">
+        <v>616</v>
+      </c>
+      <c r="AP33" t="s">
         <v>617</v>
       </c>
-      <c r="AM33" t="s">
-        <v>617</v>
-      </c>
-      <c r="AP33" t="s">
+      <c r="AQ33" t="s">
         <v>618</v>
       </c>
-      <c r="AQ33" t="s">
+      <c r="AR33" t="s">
         <v>619</v>
       </c>
-      <c r="AR33" t="s">
+      <c r="AS33" t="s">
         <v>620</v>
       </c>
-      <c r="AS33" t="s">
+      <c r="AT33" t="s">
         <v>621</v>
       </c>
-      <c r="AT33" t="s">
-        <v>622</v>
-      </c>
       <c r="AU33" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AX33" t="s">
         <v>256</v>
@@ -9854,10 +9851,10 @@
         <v>122</v>
       </c>
       <c r="BB33" t="s">
+        <v>622</v>
+      </c>
+      <c r="BC33" t="s">
         <v>623</v>
-      </c>
-      <c r="BC33" t="s">
-        <v>624</v>
       </c>
       <c r="BD33" t="s">
         <v>125</v>
@@ -9920,10 +9917,10 @@
         <v>143</v>
       </c>
       <c r="BX33" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="BY33" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="CA33" t="s">
         <v>145</v>
@@ -9952,13 +9949,13 @@
     </row>
     <row r="34" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>625</v>
+      </c>
+      <c r="B34" t="s">
         <v>626</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>627</v>
-      </c>
-      <c r="C34" t="s">
-        <v>628</v>
       </c>
       <c r="D34" t="s">
         <v>93</v>
@@ -9985,16 +9982,16 @@
         <v>97</v>
       </c>
       <c r="L34" t="s">
+        <v>628</v>
+      </c>
+      <c r="M34" t="s">
+        <v>628</v>
+      </c>
+      <c r="N34" t="s">
         <v>629</v>
       </c>
-      <c r="M34" t="s">
+      <c r="O34" t="s">
         <v>629</v>
-      </c>
-      <c r="N34" t="s">
-        <v>630</v>
-      </c>
-      <c r="O34" t="s">
-        <v>630</v>
       </c>
       <c r="R34" t="s">
         <v>103</v>
@@ -10003,10 +10000,10 @@
         <v>103</v>
       </c>
       <c r="T34" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="U34" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="Z34" t="s">
         <v>163</v>
@@ -10027,16 +10024,16 @@
         <v>112</v>
       </c>
       <c r="AF34" t="s">
+        <v>631</v>
+      </c>
+      <c r="AG34" t="s">
+        <v>631</v>
+      </c>
+      <c r="AH34" t="s">
         <v>632</v>
       </c>
-      <c r="AG34" t="s">
-        <v>632</v>
-      </c>
-      <c r="AH34" t="s">
+      <c r="AI34" t="s">
         <v>633</v>
-      </c>
-      <c r="AI34" t="s">
-        <v>634</v>
       </c>
       <c r="AJ34" t="s">
         <v>111</v>
@@ -10045,22 +10042,22 @@
         <v>112</v>
       </c>
       <c r="AL34" t="s">
+        <v>634</v>
+      </c>
+      <c r="AM34" t="s">
+        <v>634</v>
+      </c>
+      <c r="AN34" t="s">
+        <v>580</v>
+      </c>
+      <c r="AO34" t="s">
+        <v>580</v>
+      </c>
+      <c r="AP34" t="s">
         <v>635</v>
       </c>
-      <c r="AM34" t="s">
-        <v>635</v>
-      </c>
-      <c r="AN34" t="s">
-        <v>581</v>
-      </c>
-      <c r="AO34" t="s">
-        <v>581</v>
-      </c>
-      <c r="AP34" t="s">
+      <c r="AQ34" t="s">
         <v>636</v>
-      </c>
-      <c r="AQ34" t="s">
-        <v>637</v>
       </c>
       <c r="AX34" t="s">
         <v>256</v>
@@ -10069,10 +10066,10 @@
         <v>257</v>
       </c>
       <c r="AZ34" t="s">
+        <v>415</v>
+      </c>
+      <c r="BA34" t="s">
         <v>416</v>
-      </c>
-      <c r="BA34" t="s">
-        <v>417</v>
       </c>
       <c r="BD34" t="s">
         <v>125</v>
@@ -10135,10 +10132,10 @@
         <v>143</v>
       </c>
       <c r="BX34" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="BY34" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="CA34" t="s">
         <v>145</v>
@@ -10165,21 +10162,21 @@
         <v>152</v>
       </c>
       <c r="CK34" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="CL34" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="35" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>639</v>
+      </c>
+      <c r="B35" t="s">
         <v>640</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>641</v>
-      </c>
-      <c r="C35" t="s">
-        <v>642</v>
       </c>
       <c r="D35" t="s">
         <v>93</v>
@@ -10206,16 +10203,16 @@
         <v>97</v>
       </c>
       <c r="L35" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="M35" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="N35" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="O35" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="P35" t="s">
         <v>295</v>
@@ -10224,10 +10221,10 @@
         <v>296</v>
       </c>
       <c r="R35" t="s">
+        <v>578</v>
+      </c>
+      <c r="S35" t="s">
         <v>579</v>
-      </c>
-      <c r="S35" t="s">
-        <v>580</v>
       </c>
       <c r="T35" t="s">
         <v>103</v>
@@ -10248,10 +10245,10 @@
         <v>107</v>
       </c>
       <c r="Z35" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AA35" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AB35" t="s">
         <v>109</v>
@@ -10266,34 +10263,34 @@
         <v>112</v>
       </c>
       <c r="AL35" t="s">
+        <v>643</v>
+      </c>
+      <c r="AM35" t="s">
+        <v>643</v>
+      </c>
+      <c r="AP35" t="s">
         <v>644</v>
       </c>
-      <c r="AM35" t="s">
-        <v>644</v>
-      </c>
-      <c r="AP35" t="s">
+      <c r="AQ35" t="s">
         <v>645</v>
       </c>
-      <c r="AQ35" t="s">
+      <c r="AR35" t="s">
         <v>646</v>
       </c>
-      <c r="AR35" t="s">
+      <c r="AS35" t="s">
         <v>647</v>
       </c>
-      <c r="AS35" t="s">
+      <c r="AT35" t="s">
         <v>648</v>
       </c>
-      <c r="AT35" t="s">
+      <c r="AU35" t="s">
+        <v>648</v>
+      </c>
+      <c r="AX35" t="s">
         <v>649</v>
       </c>
-      <c r="AU35" t="s">
-        <v>649</v>
-      </c>
-      <c r="AX35" t="s">
+      <c r="AY35" t="s">
         <v>650</v>
-      </c>
-      <c r="AY35" t="s">
-        <v>651</v>
       </c>
       <c r="AZ35" t="s">
         <v>172</v>
@@ -10302,10 +10299,10 @@
         <v>173</v>
       </c>
       <c r="BB35" t="s">
+        <v>651</v>
+      </c>
+      <c r="BC35" t="s">
         <v>652</v>
-      </c>
-      <c r="BC35" t="s">
-        <v>653</v>
       </c>
       <c r="BD35" t="s">
         <v>125</v>
@@ -10368,10 +10365,10 @@
         <v>143</v>
       </c>
       <c r="BX35" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="BY35" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="CA35" t="s">
         <v>145</v>
@@ -10398,21 +10395,21 @@
         <v>152</v>
       </c>
       <c r="CK35" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="CL35" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="36" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>654</v>
+      </c>
+      <c r="B36" t="s">
         <v>655</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>656</v>
-      </c>
-      <c r="C36" t="s">
-        <v>657</v>
       </c>
       <c r="D36" t="s">
         <v>93</v>
@@ -10439,16 +10436,16 @@
         <v>97</v>
       </c>
       <c r="L36" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="M36" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="N36" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="O36" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="R36" t="s">
         <v>103</v>
@@ -10457,22 +10454,22 @@
         <v>103</v>
       </c>
       <c r="T36" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="U36" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="V36" t="s">
-        <v>660</v>
+        <v>407</v>
       </c>
       <c r="W36" t="s">
+        <v>766</v>
+      </c>
+      <c r="X36" t="s">
         <v>408</v>
       </c>
-      <c r="X36" t="s">
+      <c r="Y36" t="s">
         <v>409</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>410</v>
       </c>
       <c r="Z36" t="s">
         <v>163</v>
@@ -10493,16 +10490,16 @@
         <v>112</v>
       </c>
       <c r="AF36" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="AG36" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="AH36" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="AI36" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="AJ36" t="s">
         <v>111</v>
@@ -10511,22 +10508,22 @@
         <v>112</v>
       </c>
       <c r="AL36" t="s">
+        <v>661</v>
+      </c>
+      <c r="AM36" t="s">
+        <v>661</v>
+      </c>
+      <c r="AP36" t="s">
+        <v>662</v>
+      </c>
+      <c r="AQ36" t="s">
         <v>663</v>
       </c>
-      <c r="AM36" t="s">
-        <v>663</v>
-      </c>
-      <c r="AP36" t="s">
+      <c r="AT36" t="s">
         <v>664</v>
       </c>
-      <c r="AQ36" t="s">
-        <v>665</v>
-      </c>
-      <c r="AT36" t="s">
-        <v>666</v>
-      </c>
       <c r="AU36" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="AX36" t="s">
         <v>170</v>
@@ -10535,16 +10532,16 @@
         <v>171</v>
       </c>
       <c r="AZ36" t="s">
+        <v>415</v>
+      </c>
+      <c r="BA36" t="s">
         <v>416</v>
       </c>
-      <c r="BA36" t="s">
-        <v>417</v>
-      </c>
       <c r="BB36" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="BC36" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="BD36" t="s">
         <v>125</v>
@@ -10589,10 +10586,10 @@
         <v>138</v>
       </c>
       <c r="BR36" t="s">
+        <v>419</v>
+      </c>
+      <c r="BS36" t="s">
         <v>420</v>
-      </c>
-      <c r="BS36" t="s">
-        <v>421</v>
       </c>
       <c r="BT36" t="s">
         <v>141</v>
@@ -10607,10 +10604,10 @@
         <v>143</v>
       </c>
       <c r="BX36" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="BY36" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="CA36" t="s">
         <v>145</v>
@@ -10637,21 +10634,21 @@
         <v>152</v>
       </c>
       <c r="CK36" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="CL36" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="37" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>669</v>
+      </c>
+      <c r="B37" t="s">
+        <v>670</v>
+      </c>
+      <c r="C37" t="s">
         <v>671</v>
-      </c>
-      <c r="B37" t="s">
-        <v>672</v>
-      </c>
-      <c r="C37" t="s">
-        <v>673</v>
       </c>
       <c r="D37" t="s">
         <v>93</v>
@@ -10678,16 +10675,16 @@
         <v>97</v>
       </c>
       <c r="L37" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="M37" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="N37" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="O37" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="R37" t="s">
         <v>103</v>
@@ -10696,22 +10693,22 @@
         <v>103</v>
       </c>
       <c r="T37" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="U37" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="V37" t="s">
-        <v>660</v>
+        <v>407</v>
       </c>
       <c r="W37" t="s">
+        <v>766</v>
+      </c>
+      <c r="X37" t="s">
         <v>408</v>
       </c>
-      <c r="X37" t="s">
+      <c r="Y37" t="s">
         <v>409</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>410</v>
       </c>
       <c r="Z37" t="s">
         <v>163</v>
@@ -10732,16 +10729,16 @@
         <v>112</v>
       </c>
       <c r="AF37" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="AG37" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="AH37" t="s">
+        <v>632</v>
+      </c>
+      <c r="AI37" t="s">
         <v>633</v>
-      </c>
-      <c r="AI37" t="s">
-        <v>634</v>
       </c>
       <c r="AJ37" t="s">
         <v>111</v>
@@ -10750,10 +10747,10 @@
         <v>112</v>
       </c>
       <c r="AP37" t="s">
+        <v>594</v>
+      </c>
+      <c r="AQ37" t="s">
         <v>595</v>
-      </c>
-      <c r="AQ37" t="s">
-        <v>596</v>
       </c>
       <c r="AX37" t="s">
         <v>256</v>
@@ -10762,10 +10759,10 @@
         <v>257</v>
       </c>
       <c r="AZ37" t="s">
+        <v>415</v>
+      </c>
+      <c r="BA37" t="s">
         <v>416</v>
-      </c>
-      <c r="BA37" t="s">
-        <v>417</v>
       </c>
       <c r="BD37" t="s">
         <v>125</v>
@@ -10810,10 +10807,10 @@
         <v>138</v>
       </c>
       <c r="BR37" t="s">
+        <v>419</v>
+      </c>
+      <c r="BS37" t="s">
         <v>420</v>
-      </c>
-      <c r="BS37" t="s">
-        <v>421</v>
       </c>
       <c r="BT37" t="s">
         <v>141</v>
@@ -10828,10 +10825,10 @@
         <v>143</v>
       </c>
       <c r="BX37" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="BY37" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="CA37" t="s">
         <v>145</v>
@@ -10858,21 +10855,21 @@
         <v>152</v>
       </c>
       <c r="CK37" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="CL37" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="38" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>677</v>
+      </c>
+      <c r="B38" t="s">
+        <v>678</v>
+      </c>
+      <c r="C38" t="s">
         <v>679</v>
-      </c>
-      <c r="B38" t="s">
-        <v>680</v>
-      </c>
-      <c r="C38" t="s">
-        <v>681</v>
       </c>
       <c r="D38" t="s">
         <v>93</v>
@@ -10899,16 +10896,16 @@
         <v>97</v>
       </c>
       <c r="L38" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="M38" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="N38" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="O38" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="R38" t="s">
         <v>103</v>
@@ -10917,22 +10914,22 @@
         <v>103</v>
       </c>
       <c r="T38" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="U38" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="V38" t="s">
         <v>407</v>
       </c>
       <c r="W38" t="s">
+        <v>766</v>
+      </c>
+      <c r="X38" t="s">
         <v>408</v>
       </c>
-      <c r="X38" t="s">
+      <c r="Y38" t="s">
         <v>409</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>410</v>
       </c>
       <c r="Z38" t="s">
         <v>163</v>
@@ -10953,16 +10950,16 @@
         <v>112</v>
       </c>
       <c r="AF38" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="AG38" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="AH38" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="AI38" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="AJ38" t="s">
         <v>111</v>
@@ -10971,10 +10968,10 @@
         <v>112</v>
       </c>
       <c r="AP38" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="AQ38" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="AX38" t="s">
         <v>256</v>
@@ -10983,10 +10980,10 @@
         <v>257</v>
       </c>
       <c r="AZ38" t="s">
+        <v>415</v>
+      </c>
+      <c r="BA38" t="s">
         <v>416</v>
-      </c>
-      <c r="BA38" t="s">
-        <v>417</v>
       </c>
       <c r="BD38" t="s">
         <v>125</v>
@@ -11049,10 +11046,10 @@
         <v>143</v>
       </c>
       <c r="BX38" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="BY38" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="CA38" t="s">
         <v>145</v>
@@ -11079,21 +11076,21 @@
         <v>152</v>
       </c>
       <c r="CK38" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="CL38" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="39" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>688</v>
+      </c>
+      <c r="B39" t="s">
+        <v>689</v>
+      </c>
+      <c r="C39" t="s">
         <v>690</v>
-      </c>
-      <c r="B39" t="s">
-        <v>691</v>
-      </c>
-      <c r="C39" t="s">
-        <v>692</v>
       </c>
       <c r="D39" t="s">
         <v>93</v>
@@ -11120,16 +11117,16 @@
         <v>97</v>
       </c>
       <c r="L39" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="M39" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="N39" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="O39" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="P39" t="s">
         <v>295</v>
@@ -11138,10 +11135,10 @@
         <v>296</v>
       </c>
       <c r="R39" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="S39" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="T39" t="s">
         <v>103</v>
@@ -11180,10 +11177,10 @@
         <v>206</v>
       </c>
       <c r="AL39" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AM39" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="AN39" t="s">
         <v>163</v>
@@ -11192,22 +11189,22 @@
         <v>163</v>
       </c>
       <c r="AP39" t="s">
+        <v>693</v>
+      </c>
+      <c r="AQ39" t="s">
+        <v>694</v>
+      </c>
+      <c r="AR39" t="s">
         <v>695</v>
       </c>
-      <c r="AQ39" t="s">
+      <c r="AS39" t="s">
         <v>696</v>
       </c>
-      <c r="AR39" t="s">
-        <v>697</v>
-      </c>
-      <c r="AS39" t="s">
-        <v>698</v>
-      </c>
       <c r="AT39" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AU39" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AX39" t="s">
         <v>170</v>
@@ -11216,16 +11213,16 @@
         <v>171</v>
       </c>
       <c r="AZ39" t="s">
+        <v>415</v>
+      </c>
+      <c r="BA39" t="s">
         <v>416</v>
       </c>
-      <c r="BA39" t="s">
-        <v>417</v>
-      </c>
       <c r="BB39" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="BC39" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="BD39" t="s">
         <v>125</v>
@@ -11288,10 +11285,10 @@
         <v>143</v>
       </c>
       <c r="BX39" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="BY39" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="CA39" t="s">
         <v>145</v>
@@ -11318,21 +11315,21 @@
         <v>152</v>
       </c>
       <c r="CK39" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="CL39" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="40" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>701</v>
+      </c>
+      <c r="B40" t="s">
+        <v>702</v>
+      </c>
+      <c r="C40" t="s">
         <v>703</v>
-      </c>
-      <c r="B40" t="s">
-        <v>704</v>
-      </c>
-      <c r="C40" t="s">
-        <v>705</v>
       </c>
       <c r="D40" t="s">
         <v>93</v>
@@ -11359,16 +11356,16 @@
         <v>97</v>
       </c>
       <c r="L40" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="M40" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="N40" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="O40" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="R40" t="s">
         <v>103</v>
@@ -11377,22 +11374,22 @@
         <v>103</v>
       </c>
       <c r="T40" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="U40" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="V40" t="s">
         <v>407</v>
       </c>
       <c r="W40" t="s">
+        <v>766</v>
+      </c>
+      <c r="X40" t="s">
         <v>408</v>
       </c>
-      <c r="X40" t="s">
+      <c r="Y40" t="s">
         <v>409</v>
-      </c>
-      <c r="Y40" t="s">
-        <v>410</v>
       </c>
       <c r="Z40" t="s">
         <v>163</v>
@@ -11413,16 +11410,16 @@
         <v>112</v>
       </c>
       <c r="AF40" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AG40" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AH40" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="AI40" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="AJ40" t="s">
         <v>111</v>
@@ -11431,10 +11428,10 @@
         <v>112</v>
       </c>
       <c r="AP40" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="AQ40" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="AX40" t="s">
         <v>170</v>
@@ -11443,10 +11440,10 @@
         <v>171</v>
       </c>
       <c r="AZ40" t="s">
+        <v>415</v>
+      </c>
+      <c r="BA40" t="s">
         <v>416</v>
-      </c>
-      <c r="BA40" t="s">
-        <v>417</v>
       </c>
       <c r="BD40" t="s">
         <v>125</v>
@@ -11509,10 +11506,10 @@
         <v>143</v>
       </c>
       <c r="BX40" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="BY40" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="CA40" t="s">
         <v>145</v>
@@ -11539,21 +11536,21 @@
         <v>152</v>
       </c>
       <c r="CK40" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="CL40" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="41" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>711</v>
+      </c>
+      <c r="B41" t="s">
+        <v>712</v>
+      </c>
+      <c r="C41" t="s">
         <v>713</v>
-      </c>
-      <c r="B41" t="s">
-        <v>714</v>
-      </c>
-      <c r="C41" t="s">
-        <v>715</v>
       </c>
       <c r="D41" t="s">
         <v>93</v>
@@ -11580,16 +11577,16 @@
         <v>97</v>
       </c>
       <c r="L41" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="M41" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="N41" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="O41" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="R41" t="s">
         <v>103</v>
@@ -11598,22 +11595,22 @@
         <v>103</v>
       </c>
       <c r="T41" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="U41" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="V41" t="s">
         <v>407</v>
       </c>
       <c r="W41" t="s">
+        <v>766</v>
+      </c>
+      <c r="X41" t="s">
         <v>408</v>
       </c>
-      <c r="X41" t="s">
+      <c r="Y41" t="s">
         <v>409</v>
-      </c>
-      <c r="Y41" t="s">
-        <v>410</v>
       </c>
       <c r="Z41" t="s">
         <v>163</v>
@@ -11634,16 +11631,16 @@
         <v>112</v>
       </c>
       <c r="AF41" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AG41" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="AH41" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="AI41" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="AJ41" t="s">
         <v>111</v>
@@ -11652,28 +11649,28 @@
         <v>112</v>
       </c>
       <c r="AL41" t="s">
+        <v>715</v>
+      </c>
+      <c r="AM41" t="s">
+        <v>715</v>
+      </c>
+      <c r="AP41" t="s">
+        <v>716</v>
+      </c>
+      <c r="AQ41" t="s">
         <v>717</v>
       </c>
-      <c r="AM41" t="s">
-        <v>717</v>
-      </c>
-      <c r="AP41" t="s">
+      <c r="AR41" t="s">
         <v>718</v>
       </c>
-      <c r="AQ41" t="s">
+      <c r="AS41" t="s">
         <v>719</v>
       </c>
-      <c r="AR41" t="s">
-        <v>720</v>
-      </c>
-      <c r="AS41" t="s">
-        <v>721</v>
-      </c>
       <c r="AT41" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AU41" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AX41" t="s">
         <v>256</v>
@@ -11748,10 +11745,10 @@
         <v>143</v>
       </c>
       <c r="BX41" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="BY41" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="CA41" t="s">
         <v>145</v>
@@ -11778,21 +11775,21 @@
         <v>152</v>
       </c>
       <c r="CK41" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="CL41" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="42" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>721</v>
+      </c>
+      <c r="B42" t="s">
+        <v>722</v>
+      </c>
+      <c r="C42" t="s">
         <v>723</v>
-      </c>
-      <c r="B42" t="s">
-        <v>724</v>
-      </c>
-      <c r="C42" t="s">
-        <v>725</v>
       </c>
       <c r="D42" t="s">
         <v>93</v>
@@ -11819,16 +11816,16 @@
         <v>97</v>
       </c>
       <c r="L42" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="M42" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="N42" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="O42" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="P42" t="s">
         <v>295</v>
@@ -11837,10 +11834,10 @@
         <v>296</v>
       </c>
       <c r="R42" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="S42" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="T42" t="s">
         <v>103</v>
@@ -11879,34 +11876,34 @@
         <v>206</v>
       </c>
       <c r="AL42" t="s">
+        <v>725</v>
+      </c>
+      <c r="AM42" t="s">
+        <v>725</v>
+      </c>
+      <c r="AP42" t="s">
+        <v>726</v>
+      </c>
+      <c r="AQ42" t="s">
         <v>727</v>
       </c>
-      <c r="AM42" t="s">
-        <v>727</v>
-      </c>
-      <c r="AP42" t="s">
+      <c r="AR42" t="s">
         <v>728</v>
       </c>
-      <c r="AQ42" t="s">
+      <c r="AS42" t="s">
         <v>729</v>
       </c>
-      <c r="AR42" t="s">
+      <c r="AT42" t="s">
+        <v>499</v>
+      </c>
+      <c r="AU42" t="s">
+        <v>499</v>
+      </c>
+      <c r="AV42" t="s">
         <v>730</v>
       </c>
-      <c r="AS42" t="s">
+      <c r="AW42" t="s">
         <v>731</v>
-      </c>
-      <c r="AT42" t="s">
-        <v>500</v>
-      </c>
-      <c r="AU42" t="s">
-        <v>500</v>
-      </c>
-      <c r="AV42" t="s">
-        <v>732</v>
-      </c>
-      <c r="AW42" t="s">
-        <v>733</v>
       </c>
       <c r="AX42" t="s">
         <v>170</v>
@@ -11915,10 +11912,10 @@
         <v>171</v>
       </c>
       <c r="AZ42" t="s">
+        <v>415</v>
+      </c>
+      <c r="BA42" t="s">
         <v>416</v>
-      </c>
-      <c r="BA42" t="s">
-        <v>417</v>
       </c>
       <c r="BD42" t="s">
         <v>125</v>
@@ -11981,10 +11978,10 @@
         <v>143</v>
       </c>
       <c r="BX42" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="BY42" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="CA42" t="s">
         <v>145</v>
@@ -12011,21 +12008,21 @@
         <v>152</v>
       </c>
       <c r="CK42" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="CL42" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="43" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>733</v>
+      </c>
+      <c r="B43" t="s">
+        <v>734</v>
+      </c>
+      <c r="C43" t="s">
         <v>735</v>
-      </c>
-      <c r="B43" t="s">
-        <v>736</v>
-      </c>
-      <c r="C43" t="s">
-        <v>737</v>
       </c>
       <c r="D43" t="s">
         <v>93</v>
@@ -12052,28 +12049,28 @@
         <v>97</v>
       </c>
       <c r="L43" t="s">
+        <v>736</v>
+      </c>
+      <c r="M43" t="s">
+        <v>736</v>
+      </c>
+      <c r="N43" t="s">
+        <v>629</v>
+      </c>
+      <c r="O43" t="s">
+        <v>629</v>
+      </c>
+      <c r="P43" t="s">
+        <v>737</v>
+      </c>
+      <c r="Q43" t="s">
         <v>738</v>
       </c>
-      <c r="M43" t="s">
-        <v>738</v>
-      </c>
-      <c r="N43" t="s">
-        <v>630</v>
-      </c>
-      <c r="O43" t="s">
-        <v>630</v>
-      </c>
-      <c r="P43" t="s">
-        <v>739</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>740</v>
-      </c>
       <c r="R43" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="S43" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="T43" t="s">
         <v>103</v>
@@ -12112,34 +12109,34 @@
         <v>206</v>
       </c>
       <c r="AL43" t="s">
+        <v>739</v>
+      </c>
+      <c r="AM43" t="s">
+        <v>739</v>
+      </c>
+      <c r="AP43" t="s">
+        <v>740</v>
+      </c>
+      <c r="AQ43" t="s">
         <v>741</v>
       </c>
-      <c r="AM43" t="s">
-        <v>741</v>
-      </c>
-      <c r="AP43" t="s">
+      <c r="AR43" t="s">
         <v>742</v>
       </c>
-      <c r="AQ43" t="s">
+      <c r="AS43" t="s">
         <v>743</v>
       </c>
-      <c r="AR43" t="s">
+      <c r="AT43" t="s">
+        <v>499</v>
+      </c>
+      <c r="AU43" t="s">
+        <v>499</v>
+      </c>
+      <c r="AV43" t="s">
         <v>744</v>
       </c>
-      <c r="AS43" t="s">
+      <c r="AW43" t="s">
         <v>745</v>
-      </c>
-      <c r="AT43" t="s">
-        <v>500</v>
-      </c>
-      <c r="AU43" t="s">
-        <v>500</v>
-      </c>
-      <c r="AV43" t="s">
-        <v>746</v>
-      </c>
-      <c r="AW43" t="s">
-        <v>747</v>
       </c>
       <c r="AX43" t="s">
         <v>347</v>
@@ -12148,10 +12145,10 @@
         <v>348</v>
       </c>
       <c r="AZ43" t="s">
+        <v>415</v>
+      </c>
+      <c r="BA43" t="s">
         <v>416</v>
-      </c>
-      <c r="BA43" t="s">
-        <v>417</v>
       </c>
       <c r="BD43" t="s">
         <v>125</v>
@@ -12214,10 +12211,10 @@
         <v>143</v>
       </c>
       <c r="BX43" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="BY43" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="CA43" t="s">
         <v>145</v>
@@ -12244,21 +12241,21 @@
         <v>152</v>
       </c>
       <c r="CK43" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="CL43" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="44" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>747</v>
+      </c>
+      <c r="B44" t="s">
+        <v>748</v>
+      </c>
+      <c r="C44" t="s">
         <v>749</v>
-      </c>
-      <c r="B44" t="s">
-        <v>750</v>
-      </c>
-      <c r="C44" t="s">
-        <v>751</v>
       </c>
       <c r="D44" t="s">
         <v>93</v>
@@ -12285,16 +12282,16 @@
         <v>97</v>
       </c>
       <c r="L44" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="M44" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="N44" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="O44" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="R44" t="s">
         <v>103</v>
@@ -12303,22 +12300,22 @@
         <v>103</v>
       </c>
       <c r="T44" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="U44" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="V44" t="s">
         <v>407</v>
       </c>
       <c r="W44" t="s">
+        <v>766</v>
+      </c>
+      <c r="X44" t="s">
         <v>408</v>
       </c>
-      <c r="X44" t="s">
+      <c r="Y44" t="s">
         <v>409</v>
-      </c>
-      <c r="Y44" t="s">
-        <v>410</v>
       </c>
       <c r="Z44" t="s">
         <v>163</v>
@@ -12339,16 +12336,16 @@
         <v>112</v>
       </c>
       <c r="AF44" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="AG44" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="AH44" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="AI44" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="AJ44" t="s">
         <v>111</v>
@@ -12357,16 +12354,16 @@
         <v>112</v>
       </c>
       <c r="AP44" t="s">
+        <v>752</v>
+      </c>
+      <c r="AQ44" t="s">
+        <v>753</v>
+      </c>
+      <c r="AT44" t="s">
         <v>754</v>
       </c>
-      <c r="AQ44" t="s">
-        <v>755</v>
-      </c>
-      <c r="AT44" t="s">
-        <v>756</v>
-      </c>
       <c r="AU44" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="AX44" t="s">
         <v>170</v>
@@ -12375,10 +12372,10 @@
         <v>171</v>
       </c>
       <c r="AZ44" t="s">
+        <v>415</v>
+      </c>
+      <c r="BA44" t="s">
         <v>416</v>
-      </c>
-      <c r="BA44" t="s">
-        <v>417</v>
       </c>
       <c r="BD44" t="s">
         <v>125</v>
@@ -12441,10 +12438,10 @@
         <v>143</v>
       </c>
       <c r="BX44" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="BY44" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="CA44" t="s">
         <v>145</v>
@@ -12471,21 +12468,21 @@
         <v>152</v>
       </c>
       <c r="CK44" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="CL44" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="45" spans="1:90" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>756</v>
+      </c>
+      <c r="B45" t="s">
+        <v>757</v>
+      </c>
+      <c r="C45" t="s">
         <v>758</v>
-      </c>
-      <c r="B45" t="s">
-        <v>759</v>
-      </c>
-      <c r="C45" t="s">
-        <v>760</v>
       </c>
       <c r="D45" t="s">
         <v>93</v>
@@ -12512,22 +12509,22 @@
         <v>97</v>
       </c>
       <c r="L45" t="s">
+        <v>759</v>
+      </c>
+      <c r="M45" t="s">
+        <v>759</v>
+      </c>
+      <c r="N45" t="s">
+        <v>629</v>
+      </c>
+      <c r="O45" t="s">
+        <v>629</v>
+      </c>
+      <c r="P45" t="s">
+        <v>760</v>
+      </c>
+      <c r="Q45" t="s">
         <v>761</v>
-      </c>
-      <c r="M45" t="s">
-        <v>761</v>
-      </c>
-      <c r="N45" t="s">
-        <v>630</v>
-      </c>
-      <c r="O45" t="s">
-        <v>630</v>
-      </c>
-      <c r="P45" t="s">
-        <v>762</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>763</v>
       </c>
       <c r="R45" t="s">
         <v>103</v>
@@ -12536,22 +12533,22 @@
         <v>103</v>
       </c>
       <c r="T45" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="U45" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="V45" t="s">
         <v>407</v>
       </c>
       <c r="W45" t="s">
+        <v>766</v>
+      </c>
+      <c r="X45" t="s">
         <v>408</v>
       </c>
-      <c r="X45" t="s">
+      <c r="Y45" t="s">
         <v>409</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>410</v>
       </c>
       <c r="Z45" t="s">
         <v>163</v>
@@ -12572,16 +12569,16 @@
         <v>112</v>
       </c>
       <c r="AL45" t="s">
+        <v>762</v>
+      </c>
+      <c r="AM45" t="s">
+        <v>762</v>
+      </c>
+      <c r="AP45" t="s">
+        <v>763</v>
+      </c>
+      <c r="AQ45" t="s">
         <v>764</v>
-      </c>
-      <c r="AM45" t="s">
-        <v>764</v>
-      </c>
-      <c r="AP45" t="s">
-        <v>765</v>
-      </c>
-      <c r="AQ45" t="s">
-        <v>766</v>
       </c>
       <c r="AX45" t="s">
         <v>256</v>
@@ -12590,10 +12587,10 @@
         <v>257</v>
       </c>
       <c r="AZ45" t="s">
+        <v>415</v>
+      </c>
+      <c r="BA45" t="s">
         <v>416</v>
-      </c>
-      <c r="BA45" t="s">
-        <v>417</v>
       </c>
       <c r="BD45" t="s">
         <v>125</v>
@@ -12656,10 +12653,10 @@
         <v>143</v>
       </c>
       <c r="BX45" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="BY45" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="CA45" t="s">
         <v>145</v>
